--- a/시간표 생성기/시간표 생성기 (엑셀).xlsx
+++ b/시간표 생성기/시간표 생성기 (엑셀).xlsx
@@ -20,17 +20,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <x:si>
-    <x:t>ver. 201221.1</x:t>
+    <x:t>10:00
+~ 1:00</x:t>
   </x:si>
   <x:si>
     <x:t>10:00
 ~ 12:00</x:t>
   </x:si>
   <x:si>
-    <x:t>10:00
-~ 1:00</x:t>
-  </x:si>
-  <x:si>
     <x:t>11:30
 ~ 1:30</x:t>
   </x:si>
@@ -39,66 +36,63 @@
 ~ 11:30</x:t>
   </x:si>
   <x:si>
-    <x:t>해설강의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금3</x:t>
+    <x:t>ver. 201221.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김갑산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본수업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
   </x:si>
   <x:si>
     <x:t>토2</x:t>
   </x:si>
   <x:si>
-    <x:t>토5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>화목1</x:t>
   </x:si>
   <x:si>
     <x:t>홍길동</x:t>
   </x:si>
   <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>화목2</x:t>
   </x:si>
   <x:si>
     <x:t>토1</x:t>
   </x:si>
   <x:si>
-    <x:t>김갑산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본수업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
+    <x:t>토</x:t>
   </x:si>
   <x:si>
     <x:t>토3</x:t>
   </x:si>
   <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
     <x:t>오후</x:t>
   </x:si>
   <x:si>
-    <x:t>화목1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토4</x:t>
-  </x:si>
-  <x:si>
     <x:t>고등</x:t>
   </x:si>
   <x:si>
@@ -108,77 +102,83 @@
     <x:t>수</x:t>
   </x:si>
   <x:si>
+    <x:t>화목3</x:t>
+  </x:si>
+  <x:si>
     <x:t>수1</x:t>
   </x:si>
   <x:si>
-    <x:t>화목3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목특2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모의고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목고등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(본수업)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목특1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금고등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금특2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목3(11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금특1</x:t>
+    <x:t>8:00 ~
+10:00(11:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6:00
+~ 8:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5:30
+~ 7:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4:00
+~6:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3:30
+~ 5:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/4 ~ 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금3(11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:30
+~ 3:30</x:t>
   </x:si>
   <x:si>
     <x:t>1:00
 ~ 4:00</x:t>
   </x:si>
   <x:si>
-    <x:t>4:00
-~6:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5:30
-~ 7:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금3(11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3:30
-~ 5:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:30
-~ 3:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/4 ~ 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6:00
-~ 8:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8:00 ~
-10:00(11:00)</x:t>
+    <x:t>해설강의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모의고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목특1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금특2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목3(11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금고등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목고등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목특2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금특1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(본수업)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1088,6 +1088,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1170,6 +1171,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1204,6 +1206,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1248,6 +1251,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1291,6 +1295,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1351,6 +1356,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1371,6 +1377,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1401,6 +1408,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1711,7 +1719,7 @@
   <x:dimension ref="B2:R21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E15"/>
+      <x:selection activeCell="T6" activeCellId="0" sqref="T6:T6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1729,32 +1737,32 @@
   <x:sheetData>
     <x:row r="2" spans="2:10" ht="14.15" customHeight="1">
       <x:c r="B2" s="37" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="38"/>
       <x:c r="D2" s="39" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="41" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="39" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G2" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F2" s="39" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G2" s="41" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="H2" s="39" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:18">
       <x:c r="B3" s="15" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="40"/>
@@ -1763,10 +1771,10 @@
       <x:c r="G3" s="42"/>
       <x:c r="H3" s="40"/>
       <x:c r="I3" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J3" s="25" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,R3,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,R3,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R3,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R3,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="R3">
@@ -1776,26 +1784,26 @@
     <x:row r="4" spans="2:16">
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L4,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L4,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L4,TRUE),"")</x:f>
         <x:v>수1</x:v>
       </x:c>
       <x:c r="E4" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M4,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M4,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M4,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="F4" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N4,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N4,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N4,TRUE),"")</x:f>
         <x:v>수1</x:v>
       </x:c>
       <x:c r="G4" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O4,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O4,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O4,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="H4" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P4,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P4,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P4,TRUE),"")</x:f>
         <x:v>수1</x:v>
       </x:c>
       <x:c r="I4" s="9"/>
@@ -1827,10 +1835,10 @@
       <x:c r="G5" s="18"/>
       <x:c r="H5" s="17"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J5" s="25" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,R5,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,R5,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R5,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R5,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="R5">
@@ -1851,33 +1859,33 @@
     <x:row r="7" spans="2:18">
       <x:c r="B7" s="16"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="E7" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="F7" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="G7" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="H7" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="I7" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J7" s="25" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,R7,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,R7,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R7,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="L7">
@@ -1919,10 +1927,10 @@
       <x:c r="G9" s="20"/>
       <x:c r="H9" s="19"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J9" s="25" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,R9,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,R9,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R9,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R9,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="R9">
@@ -1932,26 +1940,26 @@
     <x:row r="10" spans="2:16">
       <x:c r="B10" s="16"/>
       <x:c r="C10" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D10" s="21" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L10,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L10,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L10,TRUE),"")</x:f>
         <x:v>해설강의</x:v>
       </x:c>
       <x:c r="E10" s="22" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M10,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M10,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M10,TRUE),"")</x:f>
         <x:v>해설강의</x:v>
       </x:c>
       <x:c r="F10" s="21" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N10,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N10,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N10,TRUE),"")</x:f>
         <x:v>해설강의</x:v>
       </x:c>
       <x:c r="G10" s="22" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O10,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O10,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O10,TRUE),"")</x:f>
         <x:v>해설강의</x:v>
       </x:c>
       <x:c r="H10" s="21" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P10,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P10,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P10,TRUE),"")</x:f>
         <x:v>해설강의</x:v>
       </x:c>
       <x:c r="I10" s="11"/>
@@ -1981,10 +1989,10 @@
       <x:c r="G11" s="18"/>
       <x:c r="H11" s="17"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J11" s="25" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,R11,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,R11,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R11,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R11,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="R11">
@@ -1994,26 +2002,26 @@
     <x:row r="12" spans="2:16">
       <x:c r="B12" s="16"/>
       <x:c r="C12" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D12" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L12,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L12,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L12,TRUE),"")</x:f>
         <x:v>모의고사</x:v>
       </x:c>
       <x:c r="E12" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M12,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M12,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M12,TRUE),"")</x:f>
         <x:v>모의고사</x:v>
       </x:c>
       <x:c r="F12" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N12,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N12,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N12,TRUE),"")</x:f>
         <x:v>모의고사</x:v>
       </x:c>
       <x:c r="G12" s="18" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O12,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O12,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O12,TRUE),"")</x:f>
         <x:v>모의고사</x:v>
       </x:c>
       <x:c r="H12" s="17" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P12,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P12,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P12,TRUE),"")</x:f>
         <x:v>모의고사</x:v>
       </x:c>
       <x:c r="I12" s="11"/>
@@ -2043,14 +2051,14 @@
       <x:c r="G13" s="18"/>
       <x:c r="H13" s="17"/>
       <x:c r="I13" s="26" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J13" s="27"/>
     </x:row>
     <x:row r="14" spans="2:16">
       <x:c r="B14" s="16"/>
       <x:c r="C14" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="17" t="str">
         <x:f t="shared" ref="D14:H15" si="0">D21</x:f>
@@ -2118,7 +2126,7 @@
     </x:row>
     <x:row r="16" spans="2:16">
       <x:c r="B16" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C16" s="28" t="s">
         <x:v>1</x:v>
@@ -2144,7 +2152,7 @@
         <x:v/>
       </x:c>
       <x:c r="I16" s="33" t="s">
-        <x:v>47</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J16" s="34"/>
       <x:c r="L16">
@@ -2202,29 +2210,29 @@
     </x:row>
     <x:row r="20" spans="4:8">
       <x:c r="D20" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L15,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L15,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L15,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="E20" s="5" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M15,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M15,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M15,TRUE),"")</x:f>
         <x:v>본수업</x:v>
       </x:c>
       <x:c r="F20" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N15,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N15,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N15,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="G20" s="5" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O15,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O15,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O15,TRUE),"")</x:f>
         <x:v>본수업</x:v>
       </x:c>
       <x:c r="H20" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P15,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P15,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P15,TRUE),"")</x:f>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:8">
       <x:c r="D21" t="str">
-        <x:f t="shared" ref="D21:H21" si="1">IF(D19&lt;&gt;"",+D19,IF(D20&lt;&gt;"",CONCATENATE("(",+D20,")"),""))</x:f>
+        <x:f t="shared" ref="D21:H21" si="1">IF(D19&lt;&gt;"",D19,IF(D20&lt;&gt;"",CONCATENATE("(",D20,")"),""))</x:f>
         <x:v/>
       </x:c>
       <x:c r="E21" t="str">
@@ -2331,61 +2339,61 @@
   <x:sheetData>
     <x:row r="1" spans="1:20">
       <x:c r="A1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="P1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
+      <x:c r="R1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="T1" t="s">
         <x:v>8</x:v>
@@ -2393,33 +2401,33 @@
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="6"/>
       <x:c r="D2" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I2" s="6"/>
       <x:c r="J2" s="6"/>
       <x:c r="K2" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L2" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N2" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:10">

--- a/시간표 생성기/시간표 생성기 (엑셀).xlsx
+++ b/시간표 생성기/시간표 생성기 (엑셀).xlsx
@@ -1719,7 +1719,7 @@
   <x:dimension ref="B2:R21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="T6" activeCellId="0" sqref="T6:T6"/>
+      <x:selection activeCell="D21" activeCellId="0" sqref="D21:D21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -2188,23 +2188,23 @@
     <x:row r="19" spans="3:8">
       <x:c r="C19" s="1"/>
       <x:c r="D19" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L14,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,L14,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L14,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="E19" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M14,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,M14,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,M14,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="F19" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N14,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,N14,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,N14,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="G19" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O14,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,O14,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,O14,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="H19" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P14,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$2:$T$29,P14,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,P14,TRUE),"")</x:f>
         <x:v/>
       </x:c>
     </x:row>

--- a/시간표 생성기/시간표 생성기 (엑셀).xlsx
+++ b/시간표 생성기/시간표 생성기 (엑셀).xlsx
@@ -20,6 +20,151 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김갑산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본수업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>토1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8:00 ~
+10:00(11:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해설강의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목특2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(본수업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금고등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모의고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목특1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목3(11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화목고등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금특1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금특2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4:00
+~6:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5:30
+~ 7:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/4 ~ 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:00
+~ 4:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수금3(11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6:00
+~ 8:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3:30
+~ 5:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:30
+~ 3:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver. 201221.1</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:00
 ~ 1:00</x:t>
   </x:si>
@@ -34,151 +179,6 @@
   <x:si>
     <x:t>9:30
 ~ 11:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver. 201221.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김갑산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본수업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>화목1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8:00 ~
-10:00(11:00)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6:00
-~ 8:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5:30
-~ 7:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4:00
-~6:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3:30
-~ 5:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/4 ~ 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금3(11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:30
-~ 3:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:00
-~ 4:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해설강의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모의고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목특1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금특2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목3(11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금고등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목고등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화목특2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월수금특1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(본수업)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1088,7 +1088,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1171,7 +1170,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1206,7 +1204,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1251,7 +1248,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1295,7 +1291,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1356,7 +1351,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1377,7 +1371,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1408,7 +1401,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1719,7 +1711,7 @@
   <x:dimension ref="B2:R21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D21" activeCellId="0" sqref="D21:D21"/>
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1737,32 +1729,32 @@
   <x:sheetData>
     <x:row r="2" spans="2:10" ht="14.15" customHeight="1">
       <x:c r="B2" s="37" t="s">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C2" s="38"/>
       <x:c r="D2" s="39" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="41" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="39" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="41" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2" s="39" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:18">
       <x:c r="B3" s="15" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="40"/>
@@ -1771,7 +1763,7 @@
       <x:c r="G3" s="42"/>
       <x:c r="H3" s="40"/>
       <x:c r="I3" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J3" s="25" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R3,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R3,TRUE),"")</x:f>
@@ -1784,7 +1776,7 @@
     <x:row r="4" spans="2:16">
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D4" s="17" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L4,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L4,TRUE),"")</x:f>
@@ -1826,7 +1818,7 @@
     </x:row>
     <x:row r="5" spans="2:18">
       <x:c r="B5" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="11"/>
       <x:c r="D5" s="17"/>
@@ -1835,7 +1827,7 @@
       <x:c r="G5" s="18"/>
       <x:c r="H5" s="17"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J5" s="25" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R5,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R5,TRUE),"")</x:f>
@@ -1859,7 +1851,7 @@
     <x:row r="7" spans="2:18">
       <x:c r="B7" s="16"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="17" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L7,TRUE),"")</x:f>
@@ -1882,7 +1874,7 @@
         <x:v/>
       </x:c>
       <x:c r="I7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7" s="25" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R7,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R7,TRUE),"")</x:f>
@@ -1927,7 +1919,7 @@
       <x:c r="G9" s="20"/>
       <x:c r="H9" s="19"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J9" s="25" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R9,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R9,TRUE),"")</x:f>
@@ -1940,7 +1932,7 @@
     <x:row r="10" spans="2:16">
       <x:c r="B10" s="16"/>
       <x:c r="C10" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="21" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L10,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L10,TRUE),"")</x:f>
@@ -1989,7 +1981,7 @@
       <x:c r="G11" s="18"/>
       <x:c r="H11" s="17"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J11" s="25" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,R11,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,R11,TRUE),"")</x:f>
@@ -2002,7 +1994,7 @@
     <x:row r="12" spans="2:16">
       <x:c r="B12" s="16"/>
       <x:c r="C12" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D12" s="17" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L12,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L12,TRUE),"")</x:f>
@@ -2051,14 +2043,14 @@
       <x:c r="G13" s="18"/>
       <x:c r="H13" s="17"/>
       <x:c r="I13" s="26" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="27"/>
     </x:row>
     <x:row r="14" spans="2:16">
       <x:c r="B14" s="16"/>
       <x:c r="C14" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="17" t="str">
         <x:f t="shared" ref="D14:H15" si="0">D21</x:f>
@@ -2126,33 +2118,33 @@
     </x:row>
     <x:row r="16" spans="2:16">
       <x:c r="B16" s="29" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="28" t="s">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="31" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,L16,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$1:$T$29,L16,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L16,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$1:$T$29,L16,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="E16" s="32" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,M16,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$1:$T$29,M16,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,M16,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$1:$T$29,M16,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="F16" s="31" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,N16,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$1:$T$29,N16,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,N16,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$1:$T$29,N16,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="G16" s="32" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,O16,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$1:$T$29,O16,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,O16,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$1:$T$29,O16,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="H16" s="31" t="str">
-        <x:f>IF(VLOOKUP($I$13,+dataset!$A$2:$T$29,P16,TRUE)&lt;&gt;"",VLOOKUP($I$13,+dataset!$A$1:$T$29,P16,TRUE),"")</x:f>
+        <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,P16,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$1:$T$29,P16,TRUE),"")</x:f>
         <x:v/>
       </x:c>
       <x:c r="I16" s="33" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J16" s="34"/>
       <x:c r="L16">
@@ -2185,7 +2177,7 @@
     <x:row r="18" spans="3:3">
       <x:c r="C18" s="1"/>
     </x:row>
-    <x:row r="19" spans="3:8">
+    <x:row r="19" spans="3:8" hidden="1">
       <x:c r="C19" s="1"/>
       <x:c r="D19" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L14,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L14,TRUE),"")</x:f>
@@ -2208,7 +2200,7 @@
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="20" spans="4:8">
+    <x:row r="20" spans="4:8" hidden="1">
       <x:c r="D20" t="str">
         <x:f>IF(VLOOKUP($I$13,dataset!$A$2:$T$29,L15,TRUE)&lt;&gt;"",VLOOKUP($I$13,dataset!$A$2:$T$29,L15,TRUE),"")</x:f>
         <x:v/>
@@ -2230,7 +2222,7 @@
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="21" spans="4:8">
+    <x:row r="21" spans="4:8" hidden="1">
       <x:c r="D21" t="str">
         <x:f t="shared" ref="D21:H21" si="1">IF(D19&lt;&gt;"",D19,IF(D20&lt;&gt;"",CONCATENATE("(",D20,")"),""))</x:f>
         <x:v/>
@@ -2339,95 +2331,95 @@
   <x:sheetData>
     <x:row r="1" spans="1:20">
       <x:c r="A1" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>48</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="G1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="H1" t="s">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J1" t="s">
-        <x:v>47</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K1" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="M1" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="N1" t="s">
-        <x:v>42</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O1" t="s">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="Q1" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R1" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="T1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="6"/>
       <x:c r="D2" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I2" s="6"/>
       <x:c r="J2" s="6"/>
       <x:c r="K2" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="L2" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:10">
